--- a/Website Maintenance Schedule.xlsx
+++ b/Website Maintenance Schedule.xlsx
@@ -125,9 +125,6 @@
     <t>Automate new blog posts on blog index page + Fix blog index side bar</t>
   </si>
   <si>
-    <t>Add all blog posts on blog index page + Fix social media handles</t>
-  </si>
-  <si>
     <t>Review styling and update logo and photo + Add "About Me" page</t>
   </si>
   <si>
@@ -141,6 +138,9 @@
   </si>
   <si>
     <t>4 hours</t>
+  </si>
+  <si>
+    <t>Add all blog posts on blog index page + Fix social media handles + Fix page load</t>
   </si>
 </sst>
 </file>
@@ -272,9 +272,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -282,6 +279,9 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -646,14 +646,14 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.59765625" style="6" customWidth="1"/>
     <col min="2" max="2" width="0" style="6" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="59.796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="66.59765625" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.3984375" style="6" customWidth="1"/>
     <col min="5" max="5" width="19.3984375" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="6"/>
@@ -662,21 +662,21 @@
     <row r="1" spans="1:5" s="5" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6"/>
       <c r="B1" s="4"/>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
     </row>
     <row r="2" spans="1:5" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="C2" s="7"/>
     </row>
     <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.2">
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
     </row>
     <row r="4" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="8"/>
@@ -709,7 +709,7 @@
         <v>19</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -724,7 +724,7 @@
         <v>16</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -732,8 +732,8 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C8" s="14" t="s">
-        <v>30</v>
+      <c r="C8" s="13" t="s">
+        <v>35</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>17</v>
@@ -747,14 +747,14 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="13" t="s">
         <v>29</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -763,13 +763,13 @@
         <v>5</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -784,7 +784,7 @@
         <v>21</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -792,14 +792,14 @@
         <f>N(B10)+1</f>
         <v>6</v>
       </c>
-      <c r="C12" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="15" t="s">
+      <c r="C12" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="14" t="s">
         <v>22</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
